--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2924.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2924.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>1.530583262443542</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.306761264801025</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.234432697296143</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.853784441947937</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>0.8239727020263672</v>
       </c>
     </row>
   </sheetData>
